--- a/SeleniumBegin/src/test/java/DataDrivenTest/TestData.xlsx
+++ b/SeleniumBegin/src/test/java/DataDrivenTest/TestData.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +559,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="tushartesting1@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3:E6" r:id="rId4" display="lenovopc@12"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3:E6" r:id="rId3" display="lenovopc@12"/>
+    <hyperlink ref="C3:C6" r:id="rId4" display="tushartesting1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
